--- a/products_1.xlsx
+++ b/products_1.xlsx
@@ -398,7 +398,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
